--- a/eval_perf/RB_raw_mean_data_highlighted.xlsx
+++ b/eval_perf/RB_raw_mean_data_highlighted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshg\PycharmProjects\oran-resource-opt\eval_perf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9561AF-E6D5-4635-9A49-898A5F9CB775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6D78CE-32F8-4874-BD85-D375C6CEE68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9F565377-DA3A-48F2-B622-B94FAE8EC719}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RB_raw_mean_data!$A$24:$L$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1290,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1087D927-A09B-4445-A07B-50DB222FB6A4}">
   <dimension ref="A1:L510"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J58" sqref="J1:J1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L10" sqref="A1:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2073,43 +2072,43 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1">
-        <f>AVERAGE(C13:C21)</f>
+        <f t="shared" ref="C22:L22" si="1">AVERAGE(C13:C21)</f>
         <v>0.60924857863665693</v>
       </c>
       <c r="D22" s="2">
-        <f>AVERAGE(D13:D21)</f>
+        <f t="shared" si="1"/>
         <v>0.58783969340534792</v>
       </c>
       <c r="E22">
-        <f>AVERAGE(E13:E21)</f>
+        <f t="shared" si="1"/>
         <v>0.5695142410439169</v>
       </c>
       <c r="F22" s="1">
-        <f>AVERAGE(F13:F21)</f>
+        <f t="shared" si="1"/>
         <v>0.57424442973980161</v>
       </c>
       <c r="G22">
-        <f>AVERAGE(G13:G21)</f>
+        <f t="shared" si="1"/>
         <v>0.63830038190402771</v>
       </c>
       <c r="H22">
-        <f>AVERAGE(H13:H21)</f>
+        <f t="shared" si="1"/>
         <v>0.60057076719975733</v>
       </c>
       <c r="I22">
-        <f>AVERAGE(I13:I21)</f>
+        <f t="shared" si="1"/>
         <v>0.60901924847278122</v>
       </c>
       <c r="J22" s="1">
-        <f>AVERAGE(J13:J21)</f>
+        <f t="shared" si="1"/>
         <v>0.59912444721377867</v>
       </c>
       <c r="K22">
-        <f>AVERAGE(K13:K21)</f>
+        <f t="shared" si="1"/>
         <v>0.63096975662700305</v>
       </c>
       <c r="L22">
-        <f>AVERAGE(L13:L21)</f>
+        <f t="shared" si="1"/>
         <v>0.6078115017263096</v>
       </c>
     </row>
@@ -2613,39 +2612,39 @@
         <v>0.62063778488319321</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" ref="D37:L37" si="1">AVERAGE(D25:D36)</f>
+        <f t="shared" ref="D37:L37" si="2">AVERAGE(D25:D36)</f>
         <v>0.59102459667984775</v>
       </c>
       <c r="E37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57256433971414744</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.58439397292997719</v>
       </c>
       <c r="G37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.64164657308569073</v>
       </c>
       <c r="H37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.59882047710779063</v>
       </c>
       <c r="I37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.60481100485216299</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.59631879474747862</v>
       </c>
       <c r="K37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.62889728148244106</v>
       </c>
       <c r="L37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.60774126901915959</v>
       </c>
     </row>
@@ -3324,39 +3323,39 @@
         <v>0.61410313917673764</v>
       </c>
       <c r="D57" s="2">
-        <f t="shared" ref="D57:L57" si="2">AVERAGE(D40:D56)</f>
+        <f t="shared" ref="D57:L57" si="3">AVERAGE(D40:D56)</f>
         <v>0.58721336098140575</v>
       </c>
       <c r="E57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.56717662972584937</v>
       </c>
       <c r="F57" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.57925433897856249</v>
       </c>
       <c r="G57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.63387007163821063</v>
       </c>
       <c r="H57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.59059020227136383</v>
       </c>
       <c r="I57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.59965147420204967</v>
       </c>
       <c r="J57" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.59961621966261314</v>
       </c>
       <c r="K57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.62329173999854082</v>
       </c>
       <c r="L57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.61419153856916942</v>
       </c>
     </row>
@@ -4195,39 +4194,39 @@
         <v>0.60409429715411078</v>
       </c>
       <c r="D82" s="2">
-        <f t="shared" ref="D82:L82" si="3">AVERAGE(D60:D81)</f>
+        <f t="shared" ref="D82:L82" si="4">AVERAGE(D60:D81)</f>
         <v>0.58110097912948477</v>
       </c>
       <c r="E82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.55334322483368992</v>
       </c>
       <c r="F82" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.5810583990107171</v>
       </c>
       <c r="G82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.62331392062831203</v>
       </c>
       <c r="H82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.58776193129445697</v>
       </c>
       <c r="I82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.59036869197475872</v>
       </c>
       <c r="J82" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.5790511108415004</v>
       </c>
       <c r="K82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.61710730386802981</v>
       </c>
       <c r="L82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.60717462817422763</v>
       </c>
     </row>
@@ -15412,6 +15411,26 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:L11">
     <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FF00B0F0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:L21">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:L23">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15480,26 +15499,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22:L23">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FF00B0F0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13:L21">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/eval_perf/RB_raw_mean_data_highlighted.xlsx
+++ b/eval_perf/RB_raw_mean_data_highlighted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshg\PycharmProjects\oran-resource-opt\eval_perf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6D78CE-32F8-4874-BD85-D375C6CEE68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FC44A3-193F-44C7-9B8E-98B9FE0F7BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9F565377-DA3A-48F2-B622-B94FAE8EC719}"/>
   </bookViews>
@@ -728,7 +728,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -863,6 +863,134 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -908,10 +1036,23 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1290,7 +1431,7 @@
   <dimension ref="A1:L510"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="A1:L10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1690,49 +1831,50 @@
         <v>0.62334015941050513</v>
       </c>
     </row>
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="8">
         <v>0</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="1">
@@ -1741,36 +1883,36 @@
       <c r="D13" s="2">
         <v>0.61796020601635404</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="13">
         <v>0.62759885552967398</v>
       </c>
       <c r="F13" s="1">
         <v>0.62967090872536202</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="13">
         <v>0.73182121171269598</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="13">
         <v>0.67933140478703002</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="13">
         <v>0.68169044550497704</v>
       </c>
       <c r="J13" s="1">
         <v>0.69123169624637504</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="13">
         <v>0.684399684642647</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="9">
         <v>0.60593136050963903</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="8">
         <v>0</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="1">
@@ -1779,36 +1921,36 @@
       <c r="D14" s="2">
         <v>0.73550000502084401</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="13">
         <v>0.58459260303054505</v>
       </c>
       <c r="F14" s="1">
         <v>0.695383942594892</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="13">
         <v>0.63896285389499996</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="13">
         <v>0.59310248801365595</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="13">
         <v>0.76312961444171101</v>
       </c>
       <c r="J14" s="1">
         <v>0.73429873383248301</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="13">
         <v>0.76263533189808896</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="9">
         <v>0.73232436940199996</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="8">
         <v>0</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="1">
@@ -1817,36 +1959,36 @@
       <c r="D15" s="2">
         <v>0.59728537837515905</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="13">
         <v>0.53374556093584902</v>
       </c>
       <c r="F15" s="1">
         <v>0.54065873823231203</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="13">
         <v>0.57565210766816099</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="13">
         <v>0.60998767444680402</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="13">
         <v>0.55979611272741003</v>
       </c>
       <c r="J15" s="1">
         <v>0.60980051085875098</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="13">
         <v>0.60592756849536999</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="9">
         <v>0.57221858266025005</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="8">
         <v>0</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="1">
@@ -1855,36 +1997,36 @@
       <c r="D16" s="2">
         <v>0.46087298413908001</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="13">
         <v>0.57210280584669804</v>
       </c>
       <c r="F16" s="1">
         <v>0.44731304280513601</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="13">
         <v>0.55630073228511001</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="13">
         <v>0.56793532737377095</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="13">
         <v>0.55080748203833396</v>
       </c>
       <c r="J16" s="1">
         <v>0.52817691783999898</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="13">
         <v>0.56841085543296199</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="9">
         <v>0.55963906809022101</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="8">
         <v>0</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="1">
@@ -1893,36 +2035,36 @@
       <c r="D17" s="2">
         <v>0.66398617564975904</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="13">
         <v>0.56042976842540604</v>
       </c>
       <c r="F17" s="1">
         <v>0.67581840628247902</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="13">
         <v>0.698164224784243</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="13">
         <v>0.70117164403325705</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="13">
         <v>0.68622307550344497</v>
       </c>
       <c r="J17" s="1">
         <v>0.60699502720799003</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="13">
         <v>0.71020046018157701</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="9">
         <v>0.68651816908783403</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="8">
         <v>0</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="1">
@@ -1931,36 +2073,36 @@
       <c r="D18" s="2">
         <v>0.58997552219476701</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="13">
         <v>0.56225007515519099</v>
       </c>
       <c r="F18" s="1">
         <v>0.61344187139470197</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="13">
         <v>0.65541006348041897</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="13">
         <v>0.56430593464886303</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="13">
         <v>0.51919560799734799</v>
       </c>
       <c r="J18" s="1">
         <v>0.54495581715025598</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="13">
         <v>0.64662737035753803</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="9">
         <v>0.62759296864508296</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="8">
         <v>0</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="1">
@@ -1969,36 +2111,36 @@
       <c r="D19" s="2">
         <v>0.543687586146266</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="13">
         <v>0.53485058653087503</v>
       </c>
       <c r="F19" s="1">
         <v>0.47023830376376602</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="13">
         <v>0.62623904685398801</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="13">
         <v>0.55072480998823703</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="13">
         <v>0.584986739599198</v>
       </c>
       <c r="J19" s="1">
         <v>0.59789178870760296</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="13">
         <v>0.60438217600547794</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="9">
         <v>0.56088804915022294</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="8">
         <v>0</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="1">
@@ -2007,36 +2149,36 @@
       <c r="D20" s="2">
         <v>0.61134472131029605</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="13">
         <v>0.62758974416580804</v>
       </c>
       <c r="F20" s="1">
         <v>0.60427237132270695</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="13">
         <v>0.69202050429775697</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="13">
         <v>0.56323342389532005</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="13">
         <v>0.58369573280825204</v>
       </c>
       <c r="J20" s="1">
         <v>0.57520206588051903</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="13">
         <v>0.61080652763459997</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="9">
         <v>0.60884905923204602</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="8">
         <v>0</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="1">
@@ -2045,72 +2187,80 @@
       <c r="D21" s="2">
         <v>0.46994466179560601</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="13">
         <v>0.52246816977520605</v>
       </c>
       <c r="F21" s="1">
         <v>0.49140228253685803</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="13">
         <v>0.57013269215887497</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="13">
         <v>0.57534419761087796</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="13">
         <v>0.55164842563435601</v>
       </c>
       <c r="J21" s="1">
         <v>0.50356746720003298</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="13">
         <v>0.48533783499476701</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="9">
         <v>0.51634188875949005</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C22" s="1">
+    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="14">
         <f t="shared" ref="C22:L22" si="1">AVERAGE(C13:C21)</f>
         <v>0.60924857863665693</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="15">
         <f t="shared" si="1"/>
         <v>0.58783969340534792</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="11">
         <f t="shared" si="1"/>
         <v>0.5695142410439169</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="14">
         <f t="shared" si="1"/>
         <v>0.57424442973980161</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="11">
         <f t="shared" si="1"/>
         <v>0.63830038190402771</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="11">
         <f t="shared" si="1"/>
         <v>0.60057076719975733</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="11">
         <f t="shared" si="1"/>
         <v>0.60901924847278122</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="14">
         <f t="shared" si="1"/>
         <v>0.59912444721377867</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="11">
         <f t="shared" si="1"/>
         <v>0.63096975662700305</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="12">
         <f t="shared" si="1"/>
         <v>0.6078115017263096</v>
       </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="F23"/>
+      <c r="J23"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -15400,7 +15550,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:L9">
-    <cfRule type="colorScale" priority="31">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15410,7 +15560,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:L11">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15420,7 +15570,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:L21">
-    <cfRule type="colorScale" priority="34">
+    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15429,8 +15579,28 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22:L23">
+  <conditionalFormatting sqref="C22:L22">
     <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:L36">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:L37">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15439,7 +15609,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25:L36">
+  <conditionalFormatting sqref="C40:L56">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -15449,28 +15619,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37:L37">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FF00B0F0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40:L56">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C57:L57">
-    <cfRule type="colorScale" priority="27">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15480,7 +15630,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:L81">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15490,7 +15640,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:L82">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15500,5 +15650,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>